--- a/ModelParameters.xlsx
+++ b/ModelParameters.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-5775" yWindow="990" windowWidth="19200" windowHeight="11370" tabRatio="599" activeTab="2"/>
+    <workbookView xWindow="-4500" yWindow="1035" windowWidth="19200" windowHeight="11370" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CCParams" sheetId="1" r:id="rId1"/>
     <sheet name="MMParams" sheetId="2" r:id="rId2"/>
     <sheet name="PSYParams" sheetId="3" r:id="rId3"/>
+    <sheet name="AGGParams" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="Presets">OFFSET([1]Hidden!$A$1,0,0,COUNTA([1]Hidden!$A:$A),1)</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>newPatsPerWeek</t>
   </si>
@@ -73,7 +74,34 @@
     <t>&lt;3 mo stock proportions</t>
   </si>
   <si>
+    <t>OneDoneProp</t>
+  </si>
+  <si>
+    <t>27doneprop</t>
+  </si>
+  <si>
+    <t>eightplusdoneprop</t>
+  </si>
+  <si>
+    <t>onto27prop</t>
+  </si>
+  <si>
+    <t>onto8plusprop</t>
+  </si>
+  <si>
     <t>&lt;3 mo stock freq</t>
+  </si>
+  <si>
+    <t>1freq</t>
+  </si>
+  <si>
+    <t>27ndonefreq</t>
+  </si>
+  <si>
+    <t>27afterthreefreq</t>
+  </si>
+  <si>
+    <t>27onto8freq</t>
   </si>
   <si>
     <t>8plusfreq</t>
@@ -82,28 +110,91 @@
     <t>&lt;3stock Duration</t>
   </si>
   <si>
+    <t>27ndonedur</t>
+  </si>
+  <si>
+    <t>27onto8Dur</t>
+  </si>
+  <si>
     <t>&gt;3 mo 1 vis freq</t>
+  </si>
+  <si>
+    <t>1lowfreq</t>
+  </si>
+  <si>
+    <t>1midfreq</t>
+  </si>
+  <si>
+    <t>1highfreq</t>
   </si>
   <si>
     <t>&gt;3 mo 27 vis freq</t>
   </si>
   <si>
+    <t>27lowfreq</t>
+  </si>
+  <si>
+    <t>27midfreq</t>
+  </si>
+  <si>
+    <t>27highfreq</t>
+  </si>
+  <si>
     <t>&gt;3 mo 8+ vis freq</t>
+  </si>
+  <si>
+    <t>8pluslowfreq</t>
+  </si>
+  <si>
+    <t>8plusmidfreq</t>
+  </si>
+  <si>
+    <t>8plushighfreq</t>
   </si>
   <si>
     <t>&gt;3 mo 1 vis time</t>
   </si>
   <si>
+    <t>1lowtime</t>
+  </si>
+  <si>
+    <t>1midtime</t>
+  </si>
+  <si>
+    <t>1hightime</t>
+  </si>
+  <si>
     <t>&gt;3 mo 27 vis time</t>
   </si>
   <si>
+    <t>27lowtime</t>
+  </si>
+  <si>
+    <t>27midtime</t>
+  </si>
+  <si>
+    <t>27hightime</t>
+  </si>
+  <si>
     <t>&gt;3 mo 8+ vis time</t>
+  </si>
+  <si>
+    <t>8pluslowtime</t>
+  </si>
+  <si>
+    <t>8plusmidtime</t>
+  </si>
+  <si>
+    <t>8plushightime</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
     <t>NewPatsPerWeek</t>
+  </si>
+  <si>
+    <t>supply</t>
   </si>
   <si>
     <t>proportion(waivered)</t>
@@ -127,167 +218,32 @@
     <t>other</t>
   </si>
   <si>
-    <t>vensim var</t>
-  </si>
-  <si>
-    <t>(% Go on to 2-7 in &lt;3mo) x SankeyScalar</t>
-  </si>
-  <si>
-    <t>(%visit1-n-done) x SankeyScalar</t>
-  </si>
-  <si>
-    <t>(1-(% Go on to 2-7 in &lt;3mo + %visit1-n-done)) x SankeyScalar</t>
-  </si>
-  <si>
-    <t>(%Visit2-7-n-Done) x SankeyScalar</t>
-  </si>
-  <si>
-    <t>(1-(%Visit2-7-n-Done + %Visit2-7-n-More&lt;3mo)) x SankeyScalar</t>
-  </si>
-  <si>
-    <t>(%Visit2-7-n-More&lt;3mo) x SankeyScalar</t>
-  </si>
-  <si>
-    <t>(%Visit8-12-n-Done) x SankeyScalar</t>
-  </si>
-  <si>
-    <t>(1-(%Visit8-12-n-Done)) x SankeyScalar</t>
-  </si>
-  <si>
     <t>sankeyscalar</t>
   </si>
   <si>
-    <t>Total first bar</t>
+    <t>MissedOps</t>
   </si>
   <si>
-    <t>Second bar</t>
+    <t>Supply</t>
   </si>
   <si>
-    <t>Third bar</t>
+    <t>Engagement</t>
   </si>
   <si>
-    <t>E</t>
+    <t>PctToEachService</t>
   </si>
   <si>
-    <t>model cohort</t>
+    <t>RVI</t>
   </si>
   <si>
-    <t>cohort ratio</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>E2*Cohort Ratio</t>
-  </si>
-  <si>
-    <t>etc….</t>
-  </si>
-  <si>
-    <t>%Visit1-n-Done Data</t>
-  </si>
-  <si>
-    <t>%Visit2-7-n-Done Data</t>
-  </si>
-  <si>
-    <t>% Go on to 2-7 Data in &lt;3mo</t>
-  </si>
-  <si>
-    <t>%Visit2-7-n-More&lt;3mo Data</t>
-  </si>
-  <si>
-    <t>From8PL-PL3mo Avg Time in Lower Q</t>
-  </si>
-  <si>
-    <t>From8PL-PL3mo Avg Time in Mid Qs</t>
-  </si>
-  <si>
-    <t>From8PL-PL3mo Avg Time in Upper Q</t>
-  </si>
-  <si>
-    <t>%Visit8PL-n-Done Data</t>
-  </si>
-  <si>
-    <t>From2-7-PL3mo Avg Time in Lower Q</t>
-  </si>
-  <si>
-    <t>From2-7-PL3mo Avg Time in Mid Qs</t>
-  </si>
-  <si>
-    <t>From2-7-PL3mo Avg Time in Upper Q</t>
-  </si>
-  <si>
-    <t>From1-PL3mo Avg Time in Lower Q</t>
-  </si>
-  <si>
-    <t>From1-PL3mo Avg Time in Mid Qs</t>
-  </si>
-  <si>
-    <t>From1-PL3mo Avg Time in Upper Q</t>
-  </si>
-  <si>
-    <t>Baseline Appointment Supply</t>
-  </si>
-  <si>
-    <t>supply - mean</t>
-  </si>
-  <si>
-    <t>supply - median</t>
-  </si>
-  <si>
-    <t>Frequency &gt;3mo - 1Visit-LowD</t>
-  </si>
-  <si>
-    <t>Frequency &gt;3mo - 1Visit-MidD</t>
-  </si>
-  <si>
-    <t>Frequency &gt;3mo - 1Visit-HighD</t>
-  </si>
-  <si>
-    <t>Frequency &gt;3mo - 2-7Visits-LowD</t>
-  </si>
-  <si>
-    <t>Frequency &gt;3mo - 2-7Visits-MidD</t>
-  </si>
-  <si>
-    <t>Frequency &gt;3mo - 2-7Visits-HighD</t>
-  </si>
-  <si>
-    <t>Frequency &gt;3mo - 8-12Visits-LowD</t>
-  </si>
-  <si>
-    <t>Frequency &gt;3mo - 8-12Visits-MidD</t>
-  </si>
-  <si>
-    <t>Frequency &gt;3mo - 8-12Visits-HighD</t>
-  </si>
-  <si>
-    <t>Frequency &lt;3mo - 1Visit</t>
-  </si>
-  <si>
-    <t>Frequency &lt;3mo - 2-7Visits-n-More&gt;3mo</t>
-  </si>
-  <si>
-    <t>Frequency &lt;3mo - 2-7Visits-n-done</t>
-  </si>
-  <si>
-    <t>Frequency &lt;3mo - 2-7Visits-n-More&lt;3mo</t>
-  </si>
-  <si>
-    <t>Avg Time in Visit 2-7-n-Done</t>
-  </si>
-  <si>
-    <t>Avg Time in Visit 2-7-More&lt;3mo</t>
+    <t>NewPatsToTeam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,21 +252,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,30 +269,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,32 +303,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1535,267 +1445,267 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="9">
         <v>0.69230700000000001</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="9">
         <v>0.211538</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="9">
         <v>3.8461000000000002E-2</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="9">
         <v>3.25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="9">
         <v>0.115942028985</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="9">
         <v>9.375E-2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <v>0.148717948717</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>0.18154899999999999</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>0.18154899999999999</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>0.18154899999999999</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>0.18154899999999999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>14.04918</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>13.068965</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>12.545453999999999</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <v>13.487951000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>12</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>8</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>11</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>3.5977440000000001</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>4.4395600000000002</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>2.5</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <v>4.3160509999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>2.6428564999999997</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>2.8571420000000001</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>2.5</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>3.571428</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>58</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>0</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>60</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>0</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>68</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>0</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>108.690866</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="9">
         <v>81.615763000000001</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <v>101.129869</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <v>113.94018800000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>66.142857000000006</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="9">
         <v>59.857142000000003</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <v>110</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <v>89.999999500000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="9">
         <v>0.15935334872900001</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="9">
         <v>7.3903002309000002E-2</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>2.5404157043E-2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>0.90069284064599997</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="9">
         <v>0.15935334872900001</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>7.3903002309000002E-2</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>0</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <v>0.90069284064599997</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9">
         <v>0.5</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>33</v>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1807,14 +1717,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:WF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -3643,7 +3553,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>0.2</v>
@@ -3651,7 +3561,7 @@
     </row>
     <row r="4" spans="1:604" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>0.1</v>
@@ -3659,7 +3569,7 @@
     </row>
     <row r="5" spans="1:604" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>0.05</v>
@@ -3667,7 +3577,7 @@
     </row>
     <row r="6" spans="1:604" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>0.6</v>
@@ -3675,7 +3585,7 @@
     </row>
     <row r="7" spans="1:604" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>0.33333333333300003</v>
@@ -3683,146 +3593,144 @@
     </row>
     <row r="8" spans="1:604" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="18">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5">
         <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="11" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>83</v>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="12" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="13" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:604" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3">
         <v>9.7428958051420836E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5">
         <v>9.6514745308310987E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7">
         <v>9.5617529880478086E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C21" s="3">
         <v>0.25862068965517243</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>78</v>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C22" s="1">
         <v>0.25862068965517243</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>79</v>
+      <c r="B23" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C23" s="1">
         <v>0.25862068965517243</v>
@@ -3830,26 +3738,26 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>66</v>
+      <c r="B25" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>67</v>
+      <c r="B26" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -3857,26 +3765,26 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3">
         <v>184.75</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>63</v>
+      <c r="B28" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C28" s="1">
         <v>186.5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>64</v>
+      <c r="B29" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C29" s="1">
         <v>188.25</v>
@@ -3884,39 +3792,39 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C30" s="3">
         <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>59</v>
+      <c r="B31" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C31" s="1">
         <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>60</v>
+      <c r="B32" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C32" s="1">
         <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="20">
+      <c r="A33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="3">
         <v>0.32692300000000002</v>
       </c>
       <c r="D33" s="3">
@@ -6326,9 +6234,9 @@
     </row>
     <row r="34" spans="1:604" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="3">
@@ -8139,11 +8047,8 @@
       </c>
     </row>
     <row r="35" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1">
         <v>5</v>
@@ -8159,179 +8064,249 @@
     </row>
     <row r="37" spans="1:604" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C37" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="1">
-        <v>200</v>
+      <c r="C38" s="9">
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="1">
-        <f>C38/C37</f>
-        <v>1</v>
+      <c r="C39" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:604" x14ac:dyDescent="0.25">
+      <c r="C40" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:604" x14ac:dyDescent="0.25">
+      <c r="C41" s="9">
+        <v>0.2</v>
       </c>
     </row>
     <row r="42" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" s="13"/>
-      <c r="G42" s="17" t="s">
-        <v>51</v>
+      <c r="C42" s="9">
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="12">
-        <f>C6*C38</f>
-        <v>120</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="14">
-        <v>2</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>52</v>
+      <c r="C43" s="9">
+        <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="12">
-        <f>C3*C38</f>
-        <v>40</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="14">
-        <v>3</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>53</v>
+      <c r="C44" s="9">
+        <v>0.2</v>
       </c>
     </row>
     <row r="45" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="12">
-        <f>C38-(SUM(C43:C44))</f>
-        <v>40</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="14">
-        <v>4</v>
+      <c r="C45" s="9">
+        <v>0.2</v>
       </c>
     </row>
     <row r="46" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="11">
-        <f>C4*C43</f>
-        <v>12</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="14">
-        <v>5</v>
+      <c r="C46" s="9">
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="11">
-        <f>C43-C48-C46</f>
-        <v>68.000000000039989</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="14">
-        <v>6</v>
+      <c r="C47" s="9">
+        <v>0.2</v>
       </c>
     </row>
     <row r="48" spans="1:604" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="11">
-        <f>C7*C43</f>
-        <v>39.999999999960004</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="14">
-        <v>7</v>
+      <c r="C48" s="9">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="10">
-        <f>C5*C48</f>
-        <v>1.9999999999980003</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="14">
-        <v>8</v>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="9">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="10">
-        <f>C48-C49</f>
-        <v>37.999999999962</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="14">
-        <v>9</v>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1">
+        <v>0.1</v>
+      </c>
+      <c r="C1">
+        <v>0.1</v>
+      </c>
+      <c r="D1">
+        <v>0.1</v>
+      </c>
+      <c r="E1">
+        <v>0.1</v>
+      </c>
+      <c r="F1">
+        <v>0.1</v>
+      </c>
+      <c r="G1">
+        <v>0.1</v>
+      </c>
+      <c r="H1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <v>0.45</v>
+      </c>
+      <c r="G4">
+        <v>0.6</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
